--- a/results_20180322_empty.xlsx
+++ b/results_20180322_empty.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Table1 &amp; Fig1" sheetId="1" state="visible" r:id="rId2"/>
@@ -83,6 +83,36 @@
   </authors>
   <commentList>
     <comment ref="A24" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Cyanobacteria and picoeukaryotes
+	-Yinon Bar-on</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Cyanobacteria and picoeukaryotes
+	-Yinon Bar-on</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A26" authorId="0">
       <text>
         <r>
           <rPr>
@@ -202,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="128">
   <si>
     <t xml:space="preserve">Biomass [Gt C]</t>
   </si>
@@ -378,7 +408,7 @@
     <t xml:space="preserve">Soil protists</t>
   </si>
   <si>
-    <t xml:space="preserve">Estimate in MS (Suggested by Yinon)</t>
+    <t xml:space="preserve">Rounded biomass</t>
   </si>
   <si>
     <t xml:space="preserve">Seagrass</t>
@@ -393,7 +423,13 @@
     <t xml:space="preserve">Marine archaea</t>
   </si>
   <si>
-    <t xml:space="preserve">Picoplankton</t>
+    <t xml:space="preserve">Bacterial picophytoplankton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Green algae picophytoplankton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protist picophytoplankton</t>
   </si>
   <si>
     <t xml:space="preserve">Diatoms</t>
@@ -408,9 +444,6 @@
     <t xml:space="preserve">Group</t>
   </si>
   <si>
-    <t xml:space="preserve">Biomass [g]</t>
-  </si>
-  <si>
     <t xml:space="preserve">Number of individuals</t>
   </si>
   <si>
@@ -573,7 +606,7 @@
     <t xml:space="preserve">Marine producers</t>
   </si>
   <si>
-    <t xml:space="preserve">Marine comsumers</t>
+    <t xml:space="preserve">Marine consumers</t>
   </si>
   <si>
     <t xml:space="preserve">Fraction of microbial marine biomass</t>
@@ -589,14 +622,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
+  <numFmts count="8">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="0.00E+00"/>
-    <numFmt numFmtId="168" formatCode="0"/>
-    <numFmt numFmtId="169" formatCode="0.00"/>
-    <numFmt numFmtId="170" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="#"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="168" formatCode="0.00E+00"/>
+    <numFmt numFmtId="169" formatCode="0"/>
+    <numFmt numFmtId="170" formatCode="0.00"/>
+    <numFmt numFmtId="171" formatCode="0.0000"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -801,7 +835,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -822,14 +856,18 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -854,7 +892,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -862,7 +900,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -886,11 +924,11 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -902,7 +940,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -962,10 +1000,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -990,23 +1024,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1018,15 +1052,63 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1034,51 +1116,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="171" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1086,7 +1124,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1114,14 +1152,14 @@
   <dimension ref="A1:Z27"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D28" activeCellId="0" sqref="D28"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="1" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="6.47959183673469"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="1" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="9.44897959183673"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1175,15 +1213,15 @@
       <c r="D2" s="6" t="n">
         <v>60</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5" t="n">
+      <c r="E2" s="7"/>
+      <c r="F2" s="7" t="n">
         <f aca="false">SUM(C2:C5)</f>
         <v>0</v>
       </c>
       <c r="G2" s="6" t="n">
         <v>70</v>
       </c>
-      <c r="H2" s="7"/>
+      <c r="H2" s="8"/>
       <c r="L2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1191,14 +1229,14 @@
       <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9" t="n">
+      <c r="C3" s="9"/>
+      <c r="D3" s="10" t="n">
         <v>1.4</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
       <c r="L3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1206,14 +1244,14 @@
       <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9" t="n">
+      <c r="C4" s="9"/>
+      <c r="D4" s="10" t="n">
         <v>7</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
       <c r="L4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1221,14 +1259,14 @@
       <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="11" t="n">
+      <c r="C5" s="11"/>
+      <c r="D5" s="12" t="n">
         <v>7</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
       <c r="L5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1238,19 +1276,19 @@
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="5"/>
+      <c r="C6" s="7"/>
       <c r="D6" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5" t="n">
+      <c r="E6" s="7"/>
+      <c r="F6" s="7" t="n">
         <f aca="false">C:C</f>
         <v>0</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="H6" s="7"/>
+      <c r="H6" s="8"/>
       <c r="L6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1258,14 +1296,14 @@
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9" t="n">
+      <c r="C7" s="9"/>
+      <c r="D7" s="10" t="n">
         <v>0.3</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
       <c r="L7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1273,14 +1311,14 @@
       <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9" t="n">
+      <c r="C8" s="9"/>
+      <c r="D8" s="10" t="n">
         <v>0.5</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
       <c r="L8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1288,14 +1326,14 @@
       <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="11" t="n">
+      <c r="C9" s="11"/>
+      <c r="D9" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
       <c r="L9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1305,17 +1343,17 @@
       <c r="B10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="5"/>
+      <c r="C10" s="7"/>
       <c r="D10" s="6"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5" t="n">
+      <c r="E10" s="7"/>
+      <c r="F10" s="7" t="n">
         <f aca="false">SUM(C10:C11)</f>
         <v>0</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>13</v>
       </c>
-      <c r="H10" s="7"/>
+      <c r="H10" s="8"/>
       <c r="L10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1323,12 +1361,12 @@
       <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="8"/>
+      <c r="C11" s="9"/>
       <c r="D11" s="0"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
       <c r="L11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1338,19 +1376,19 @@
       <c r="B12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="5"/>
+      <c r="C12" s="7"/>
       <c r="D12" s="6" t="n">
         <v>0.2</v>
       </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="13" t="n">
+      <c r="E12" s="13"/>
+      <c r="F12" s="14" t="n">
         <f aca="false">SUM(C12:C22)</f>
         <v>0</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="H12" s="7"/>
+      <c r="H12" s="8"/>
       <c r="L12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1358,14 +1396,14 @@
       <c r="B13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9" t="n">
+      <c r="C13" s="9"/>
+      <c r="D13" s="10" t="n">
         <v>0.2</v>
       </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
       <c r="L13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1373,127 +1411,127 @@
       <c r="B14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="9" t="n">
+      <c r="C14" s="9"/>
+      <c r="D14" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="L14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="L14" s="10"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="9" t="n">
+      <c r="C15" s="9"/>
+      <c r="D15" s="10" t="n">
         <v>0.1</v>
       </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="9" t="n">
+      <c r="C16" s="9"/>
+      <c r="D16" s="10" t="n">
         <v>0.2</v>
       </c>
-      <c r="E16" s="14"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="4"/>
       <c r="B17" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="9" t="n">
+      <c r="C17" s="9"/>
+      <c r="D17" s="10" t="n">
         <v>0.02</v>
       </c>
-      <c r="E17" s="14"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="4"/>
       <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="9" t="n">
+      <c r="C18" s="9"/>
+      <c r="D18" s="10" t="n">
         <v>0.7</v>
       </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="4"/>
       <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="9" t="n">
+      <c r="C19" s="9"/>
+      <c r="D19" s="10" t="n">
         <v>0.1</v>
       </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="4"/>
       <c r="B20" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="9" t="n">
+      <c r="C20" s="9"/>
+      <c r="D20" s="10" t="n">
         <v>0.05</v>
       </c>
-      <c r="E20" s="14"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="4"/>
       <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="9" t="n">
+      <c r="C21" s="9"/>
+      <c r="D21" s="10" t="n">
         <v>0.002</v>
       </c>
-      <c r="E21" s="14"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="4"/>
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="10" t="n">
+      <c r="C22" s="16"/>
+      <c r="D22" s="11" t="n">
         <v>0.007</v>
       </c>
-      <c r="E22" s="16"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
@@ -1502,29 +1540,29 @@
       <c r="B23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="5"/>
+      <c r="C23" s="7"/>
       <c r="D23" s="6"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5" t="n">
+      <c r="E23" s="7"/>
+      <c r="F23" s="7" t="n">
         <f aca="false">SUM(C23:C24)</f>
         <v>0</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="H23" s="7"/>
+      <c r="H23" s="8"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="4"/>
       <c r="B24" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="8"/>
+      <c r="C24" s="9"/>
       <c r="D24" s="0"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
@@ -1533,14 +1571,14 @@
       <c r="B25" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="17"/>
-      <c r="D25" s="18" t="n">
+      <c r="C25" s="18"/>
+      <c r="D25" s="19" t="n">
         <v>0.2</v>
       </c>
-      <c r="E25" s="17"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="20"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="21"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
@@ -1549,14 +1587,14 @@
       <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="17"/>
-      <c r="D26" s="18" t="n">
+      <c r="C26" s="18"/>
+      <c r="D26" s="19" t="n">
         <v>450</v>
       </c>
-      <c r="E26" s="21"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="17"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="18"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
@@ -1569,10 +1607,10 @@
         <f aca="false">SUM(C2:C27)</f>
         <v>0</v>
       </c>
-      <c r="G27" s="9" t="n">
+      <c r="G27" s="10" t="n">
         <v>550</v>
       </c>
-      <c r="H27" s="9"/>
+      <c r="H27" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -1621,8 +1659,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="1" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="1" width="9.44897959183673"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1650,23 +1688,23 @@
       <c r="B2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="5" t="n">
+      <c r="C2" s="7" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C26</f>
         <v>0</v>
       </c>
-      <c r="D2" s="22" t="n">
+      <c r="D2" s="23" t="n">
         <f aca="false">'Table1 &amp; Fig1'!E26</f>
         <v>0</v>
       </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="14"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="15"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="4"/>
       <c r="B3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="8" t="n">
+      <c r="C3" s="9" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C4</f>
         <v>0</v>
       </c>
@@ -1674,15 +1712,15 @@
         <f aca="false">'Table1 &amp; Fig1'!E4</f>
         <v>0</v>
       </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="14"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="15"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="4"/>
       <c r="B4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="8" t="n">
+      <c r="C4" s="9" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C8</f>
         <v>0</v>
       </c>
@@ -1690,15 +1728,15 @@
         <f aca="false">'Table1 &amp; Fig1'!E8</f>
         <v>0</v>
       </c>
-      <c r="E4" s="24"/>
-      <c r="F4" s="14"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="15"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="4"/>
       <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="8" t="n">
+      <c r="C5" s="9" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C10</f>
         <v>0</v>
       </c>
@@ -1706,100 +1744,100 @@
         <f aca="false">'Table1 &amp; Fig1'!E10</f>
         <v>0</v>
       </c>
-      <c r="E5" s="24"/>
-      <c r="F5" s="14"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="15"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="4"/>
       <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="8" t="n">
+      <c r="C6" s="9" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C13</f>
         <v>0</v>
       </c>
       <c r="D6" s="0"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="14"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="15"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="4"/>
       <c r="B7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="8" t="n">
+      <c r="C7" s="9" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C20</f>
         <v>0</v>
       </c>
       <c r="D7" s="0"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="14"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="15"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="4"/>
       <c r="B8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="8" t="n">
+      <c r="C8" s="9" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C19</f>
         <v>0</v>
       </c>
       <c r="D8" s="0"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="14"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="15"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="4"/>
       <c r="B9" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="25"/>
+      <c r="C9" s="26"/>
       <c r="D9" s="0"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="14"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="15"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="4"/>
       <c r="B10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="8" t="n">
+      <c r="C10" s="9" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C21</f>
         <v>0</v>
       </c>
       <c r="D10" s="0"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="14"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="15"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="4"/>
       <c r="B11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="8" t="n">
+      <c r="C11" s="9" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C12</f>
         <v>0</v>
       </c>
       <c r="D11" s="0"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="14"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="15"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="8"/>
+      <c r="C12" s="9"/>
       <c r="D12" s="0"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="14"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="15"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="8" t="n">
+      <c r="C13" s="9" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C24</f>
         <v>0</v>
       </c>
@@ -1807,23 +1845,23 @@
         <f aca="false">'Table1 &amp; Fig1'!E24</f>
         <v>0</v>
       </c>
-      <c r="E13" s="24"/>
-      <c r="F13" s="14"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="15"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="16" t="n">
+      <c r="C14" s="17" t="n">
         <f aca="false">SUM(C2:C13)</f>
         <v>0</v>
       </c>
       <c r="D14" s="0"/>
-      <c r="E14" s="26" t="n">
+      <c r="E14" s="27" t="n">
         <v>470</v>
       </c>
-      <c r="F14" s="14"/>
+      <c r="F14" s="15"/>
     </row>
     <row r="15" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
@@ -1832,11 +1870,11 @@
       <c r="B15" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="10" t="s">
         <v>0</v>
       </c>
       <c r="D15" s="0"/>
-      <c r="E15" s="27" t="s">
+      <c r="E15" s="28" t="s">
         <v>1</v>
       </c>
       <c r="F15" s="0"/>
@@ -1848,7 +1886,7 @@
       <c r="B16" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="8" t="n">
+      <c r="C16" s="9" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C3</f>
         <v>0</v>
       </c>
@@ -1856,15 +1894,15 @@
         <f aca="false">'Table1 &amp; Fig1'!E3</f>
         <v>0</v>
       </c>
-      <c r="E16" s="24"/>
-      <c r="F16" s="14"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="15"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="4"/>
       <c r="B17" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="8" t="n">
+      <c r="C17" s="9" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C7</f>
         <v>0</v>
       </c>
@@ -1872,15 +1910,15 @@
         <f aca="false">'Table1 &amp; Fig1'!E7</f>
         <v>0</v>
       </c>
-      <c r="E17" s="24"/>
-      <c r="F17" s="8"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="9"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="4"/>
       <c r="B18" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="8" t="n">
+      <c r="C18" s="9" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C14</f>
         <v>0</v>
       </c>
@@ -1888,41 +1926,41 @@
         <f aca="false">'Table1 &amp; Fig1'!E14</f>
         <v>0</v>
       </c>
-      <c r="E18" s="24"/>
-      <c r="F18" s="8"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="9"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="4"/>
       <c r="B19" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="8" t="n">
+      <c r="C19" s="9" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C16</f>
         <v>0</v>
       </c>
       <c r="D19" s="0"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="14"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="15"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="4"/>
       <c r="B20" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="8" t="n">
+      <c r="C20" s="9" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C15</f>
         <v>0</v>
       </c>
       <c r="D20" s="0"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="14"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="15"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="4"/>
       <c r="B21" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="8" t="n">
+      <c r="C21" s="9" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C23</f>
         <v>0</v>
       </c>
@@ -1930,48 +1968,48 @@
         <f aca="false">'Table1 &amp; Fig1'!E23</f>
         <v>0</v>
       </c>
-      <c r="E21" s="24"/>
-      <c r="F21" s="14"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="15"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="4"/>
       <c r="B22" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="8" t="n">
+      <c r="C22" s="9" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C18</f>
         <v>0</v>
       </c>
       <c r="D22" s="0"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="14"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="15"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="8"/>
+      <c r="C23" s="9"/>
       <c r="D23" s="0"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="14"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="15"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="4"/>
       <c r="B24" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="8"/>
+      <c r="C24" s="9"/>
       <c r="D24" s="0"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="14"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="15"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="4"/>
       <c r="B25" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="8" t="n">
+      <c r="C25" s="9" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C11</f>
         <v>0</v>
       </c>
@@ -1979,23 +2017,23 @@
         <f aca="false">'Table1 &amp; Fig1'!E11</f>
         <v>0</v>
       </c>
-      <c r="E25" s="28"/>
-      <c r="F25" s="14"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="15"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="4"/>
       <c r="B26" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="11" t="n">
+      <c r="C26" s="12" t="n">
         <f aca="false">SUM(C16:C25)</f>
         <v>0</v>
       </c>
       <c r="D26" s="0"/>
-      <c r="E26" s="29" t="n">
+      <c r="E26" s="30" t="n">
         <v>6</v>
       </c>
-      <c r="F26" s="14"/>
+      <c r="F26" s="15"/>
     </row>
     <row r="27" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
@@ -2004,14 +2042,14 @@
       <c r="B27" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="10" t="s">
         <v>0</v>
       </c>
       <c r="D27" s="0"/>
-      <c r="E27" s="27" t="s">
+      <c r="E27" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="F27" s="14"/>
+      <c r="F27" s="15"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
@@ -2020,7 +2058,7 @@
       <c r="B28" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="8" t="n">
+      <c r="C28" s="9" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C5</f>
         <v>0</v>
       </c>
@@ -2028,15 +2066,15 @@
         <f aca="false">'Table1 &amp; Fig1'!E5</f>
         <v>0</v>
       </c>
-      <c r="E28" s="24"/>
-      <c r="F28" s="14"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="15"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="4"/>
       <c r="B29" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="8" t="n">
+      <c r="C29" s="9" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C2</f>
         <v>0</v>
       </c>
@@ -2044,15 +2082,15 @@
         <f aca="false">'Table1 &amp; Fig1'!E2</f>
         <v>0</v>
       </c>
-      <c r="E29" s="24"/>
-      <c r="F29" s="14"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="15"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="4"/>
       <c r="B30" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C30" s="8" t="n">
+      <c r="C30" s="9" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C9</f>
         <v>0</v>
       </c>
@@ -2060,15 +2098,15 @@
         <f aca="false">'Table1 &amp; Fig1'!E9</f>
         <v>0</v>
       </c>
-      <c r="E30" s="24"/>
-      <c r="F30" s="14"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="15"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="4"/>
       <c r="B31" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C31" s="8" t="n">
+      <c r="C31" s="9" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C6</f>
         <v>0</v>
       </c>
@@ -2076,19 +2114,19 @@
         <f aca="false">'Table1 &amp; Fig1'!E6</f>
         <v>0</v>
       </c>
-      <c r="E31" s="24"/>
-      <c r="F31" s="14"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="15"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="4"/>
       <c r="B32" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="11" t="n">
+      <c r="C32" s="12" t="n">
         <f aca="false">SUM(C28:C31)</f>
         <v>0</v>
       </c>
-      <c r="E32" s="29" t="n">
+      <c r="E32" s="30" t="n">
         <v>70</v>
       </c>
     </row>
@@ -2121,279 +2159,279 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="9.44897959183673"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="12" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="32" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="8" t="n">
+      <c r="B2" s="33"/>
+      <c r="C2" s="9" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C26</f>
         <v>0</v>
       </c>
-      <c r="D2" s="8" t="n">
+      <c r="D2" s="9" t="n">
         <f aca="false">Fig2C!B22+Fig2C!B23+0.12</f>
         <v>0.12</v>
       </c>
-      <c r="E2" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" s="28" t="s">
+      <c r="E2" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="29" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="8" t="n">
+      <c r="B3" s="33"/>
+      <c r="C3" s="9" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C10</f>
         <v>0</v>
       </c>
-      <c r="D3" s="8" t="n">
+      <c r="D3" s="9" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C11</f>
         <v>0</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="28"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="29"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="8" t="n">
+      <c r="B4" s="33"/>
+      <c r="C4" s="9" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C24</f>
         <v>0</v>
       </c>
-      <c r="D4" s="8" t="n">
+      <c r="D4" s="9" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C23</f>
         <v>0</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="28"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="29"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="8" t="n">
+      <c r="C5" s="9" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C13</f>
         <v>0</v>
       </c>
-      <c r="D5" s="14" t="n">
+      <c r="D5" s="15" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C14</f>
         <v>0</v>
       </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="28"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="29"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="32"/>
-      <c r="B6" s="28" t="s">
+      <c r="A6" s="33"/>
+      <c r="B6" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="8" t="n">
+      <c r="C6" s="9" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C19</f>
         <v>0</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="28"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="29"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="32"/>
-      <c r="B7" s="28" t="s">
+      <c r="A7" s="33"/>
+      <c r="B7" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="8" t="n">
+      <c r="C7" s="9" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C20</f>
         <v>0</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="28"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="29"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="32"/>
-      <c r="B8" s="28" t="s">
+      <c r="A8" s="33"/>
+      <c r="B8" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="25" t="n">
+      <c r="C8" s="26" t="n">
         <f aca="false">Fig2A!C9</f>
         <v>0</v>
       </c>
-      <c r="D8" s="14" t="n">
+      <c r="D8" s="15" t="n">
         <f aca="false">Fig2A!C23</f>
         <v>0</v>
       </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="28"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="29"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="32"/>
-      <c r="B9" s="28" t="s">
+      <c r="A9" s="33"/>
+      <c r="B9" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="8" t="n">
+      <c r="C9" s="9" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C21</f>
         <v>0</v>
       </c>
-      <c r="D9" s="14" t="n">
+      <c r="D9" s="15" t="n">
         <f aca="false">Fig2A!C23</f>
         <v>0</v>
       </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="28"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="29"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="32"/>
-      <c r="B10" s="28" t="s">
+      <c r="A10" s="33"/>
+      <c r="B10" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="8" t="n">
+      <c r="C10" s="9" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C12</f>
         <v>0</v>
       </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="28"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="29"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="32"/>
-      <c r="B11" s="28" t="s">
+      <c r="A11" s="33"/>
+      <c r="B11" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="8" t="n">
+      <c r="C11" s="9" t="n">
         <f aca="false">Fig2A!C12</f>
         <v>0</v>
       </c>
-      <c r="D11" s="14" t="n">
+      <c r="D11" s="15" t="n">
         <f aca="false">Fig2A!C24</f>
         <v>0</v>
       </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="28"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="29"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="32"/>
-      <c r="B12" s="28" t="s">
+      <c r="A12" s="33"/>
+      <c r="B12" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="8" t="n">
+      <c r="C12" s="15"/>
+      <c r="D12" s="9" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C18</f>
         <v>0</v>
       </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="28"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="29"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="32"/>
-      <c r="B13" s="28" t="s">
+      <c r="A13" s="33"/>
+      <c r="B13" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="8" t="n">
+      <c r="C13" s="15"/>
+      <c r="D13" s="9" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C16</f>
         <v>0</v>
       </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="28"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="29"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="32"/>
-      <c r="B14" s="28" t="s">
+      <c r="A14" s="33"/>
+      <c r="B14" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="8" t="n">
+      <c r="C14" s="15"/>
+      <c r="D14" s="9" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C15</f>
         <v>0</v>
       </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="28"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="29"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="32"/>
-      <c r="B15" s="28" t="s">
+      <c r="A15" s="33"/>
+      <c r="B15" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="14" t="n">
+      <c r="C15" s="15" t="n">
         <f aca="false">SUM(C5:C14)</f>
         <v>0</v>
       </c>
-      <c r="D15" s="14" t="n">
+      <c r="D15" s="15" t="n">
         <f aca="false">SUM(D5:D14)</f>
         <v>0</v>
       </c>
-      <c r="E15" s="14" t="n">
+      <c r="E15" s="15" t="n">
         <f aca="false">SUM(E5:E14)</f>
         <v>0</v>
       </c>
-      <c r="F15" s="28"/>
+      <c r="F15" s="29"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="14" t="n">
+      <c r="B16" s="33"/>
+      <c r="C16" s="15" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C4</f>
         <v>0</v>
       </c>
-      <c r="D16" s="14" t="n">
+      <c r="D16" s="15" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C3</f>
         <v>0</v>
       </c>
-      <c r="E16" s="14" t="n">
+      <c r="E16" s="15" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C2+'Table1 &amp; Fig1'!C5</f>
         <v>0</v>
       </c>
-      <c r="F16" s="28"/>
+      <c r="F16" s="29"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="33"/>
-      <c r="C17" s="16" t="n">
+      <c r="B17" s="34"/>
+      <c r="C17" s="17" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C8</f>
         <v>0</v>
       </c>
-      <c r="D17" s="16" t="n">
+      <c r="D17" s="17" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C7</f>
         <v>0</v>
       </c>
-      <c r="E17" s="16" t="n">
+      <c r="E17" s="17" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C6+'Table1 &amp; Fig1'!C9</f>
         <v>0</v>
       </c>
-      <c r="F17" s="26"/>
+      <c r="F17" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2423,250 +2461,250 @@
   </sheetPr>
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I29" activeCellId="0" sqref="I29"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C31" activeCellId="0" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="9.44897959183673"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
       <c r="G1" s="0"/>
       <c r="H1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34" t="s">
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="14"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="15"/>
       <c r="H2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="36" t="s">
+      <c r="F3" s="37" t="s">
         <v>2</v>
       </c>
       <c r="G3" s="0"/>
       <c r="H3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="8" t="n">
+      <c r="B4" s="9" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C26</f>
         <v>0</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="8" t="n">
+      <c r="E4" s="9" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C4</f>
         <v>0</v>
       </c>
-      <c r="F4" s="37" t="n">
+      <c r="F4" s="38" t="n">
         <f aca="false">'Table1 &amp; Fig1'!E4</f>
         <v>0</v>
       </c>
-      <c r="G4" s="8"/>
+      <c r="G4" s="9"/>
       <c r="H4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="38"/>
+      <c r="A5" s="39"/>
       <c r="B5" s="0"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="9" t="s">
+      <c r="C5" s="25"/>
+      <c r="D5" s="10" t="s">
         <v>55</v>
       </c>
       <c r="E5" s="1" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C8</f>
         <v>0</v>
       </c>
-      <c r="F5" s="28" t="n">
+      <c r="F5" s="29" t="n">
         <f aca="false">'Table1 &amp; Fig1'!E8</f>
         <v>0</v>
       </c>
-      <c r="G5" s="14"/>
+      <c r="G5" s="15"/>
       <c r="H5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="38"/>
+      <c r="A6" s="39"/>
       <c r="B6" s="0"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="9" t="s">
+      <c r="C6" s="25"/>
+      <c r="D6" s="10" t="s">
         <v>56</v>
       </c>
       <c r="E6" s="1" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C10</f>
         <v>0</v>
       </c>
-      <c r="F6" s="28" t="n">
+      <c r="F6" s="29" t="n">
         <f aca="false">'Table1 &amp; Fig1'!E10</f>
         <v>0</v>
       </c>
-      <c r="G6" s="14"/>
+      <c r="G6" s="15"/>
       <c r="H6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="38"/>
+      <c r="A7" s="39"/>
       <c r="B7" s="0"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="14" t="s">
+      <c r="C7" s="25"/>
+      <c r="D7" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="E7" s="8" t="n">
+      <c r="E7" s="9" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C24</f>
         <v>0</v>
       </c>
-      <c r="F7" s="28" t="n">
+      <c r="F7" s="29" t="n">
         <f aca="false">'Table1 &amp; Fig1'!E24</f>
         <v>0</v>
       </c>
-      <c r="G7" s="14"/>
+      <c r="G7" s="15"/>
       <c r="H7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="38"/>
+      <c r="A8" s="39"/>
       <c r="B8" s="0"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="14" t="s">
+      <c r="C8" s="25"/>
+      <c r="D8" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="8" t="n">
+      <c r="E8" s="9" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C13</f>
         <v>0</v>
       </c>
-      <c r="F8" s="28" t="n">
+      <c r="F8" s="29" t="n">
         <f aca="false">'Table1 &amp; Fig1'!E13</f>
         <v>0</v>
       </c>
-      <c r="G8" s="14"/>
+      <c r="G8" s="15"/>
       <c r="H8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="38"/>
+      <c r="A9" s="39"/>
       <c r="B9" s="0"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="14" t="s">
+      <c r="C9" s="25"/>
+      <c r="D9" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="8" t="n">
+      <c r="E9" s="9" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C20</f>
         <v>0</v>
       </c>
-      <c r="F9" s="28"/>
-      <c r="G9" s="14"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="15"/>
       <c r="H9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="38"/>
+      <c r="A10" s="39"/>
       <c r="B10" s="0"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="14" t="s">
+      <c r="C10" s="25"/>
+      <c r="D10" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="8" t="n">
+      <c r="E10" s="9" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C19</f>
         <v>0</v>
       </c>
-      <c r="F10" s="28"/>
-      <c r="G10" s="14"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="15"/>
       <c r="H10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="38"/>
+      <c r="A11" s="39"/>
       <c r="B11" s="0"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="14" t="s">
+      <c r="C11" s="25"/>
+      <c r="D11" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="25" t="n">
+      <c r="E11" s="26" t="n">
         <f aca="false">Fig2A!C9</f>
         <v>0</v>
       </c>
-      <c r="F11" s="28" t="n">
+      <c r="F11" s="29" t="n">
         <f aca="false">Fig2A!D9</f>
         <v>0</v>
       </c>
-      <c r="G11" s="14"/>
+      <c r="G11" s="15"/>
       <c r="H11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="38"/>
+      <c r="A12" s="39"/>
       <c r="B12" s="0"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="14" t="s">
+      <c r="C12" s="25"/>
+      <c r="D12" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="8" t="n">
+      <c r="E12" s="9" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C21</f>
         <v>0</v>
       </c>
-      <c r="F12" s="28"/>
-      <c r="G12" s="14"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="15"/>
       <c r="H12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="38"/>
+      <c r="A13" s="39"/>
       <c r="B13" s="0"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="14" t="s">
+      <c r="C13" s="25"/>
+      <c r="D13" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="8" t="n">
+      <c r="E13" s="9" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C12</f>
         <v>0</v>
       </c>
-      <c r="F13" s="24"/>
+      <c r="F13" s="25"/>
       <c r="G13" s="0"/>
       <c r="H13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="33"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="16" t="s">
+      <c r="A14" s="34"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="10" t="n">
+      <c r="E14" s="11" t="n">
         <f aca="false">Fig2A!C12</f>
         <v>0</v>
       </c>
-      <c r="F14" s="29"/>
+      <c r="F14" s="30"/>
       <c r="G14" s="0"/>
       <c r="H14" s="0"/>
     </row>
@@ -2681,15 +2719,15 @@
       <c r="H15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="35"/>
-      <c r="B16" s="18" t="s">
+      <c r="A16" s="36"/>
+      <c r="B16" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="39" t="s">
+      <c r="C16" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="D16" s="35"/>
-      <c r="E16" s="18" t="s">
+      <c r="D16" s="36"/>
+      <c r="E16" s="19" t="s">
         <v>52</v>
       </c>
       <c r="F16" s="40" t="s">
@@ -2699,24 +2737,24 @@
       <c r="H16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="16" t="n">
+      <c r="B17" s="17" t="n">
         <f aca="false">B4</f>
         <v>0</v>
       </c>
-      <c r="C17" s="16" t="n">
+      <c r="C17" s="17" t="n">
         <v>450</v>
       </c>
-      <c r="D17" s="33" t="s">
+      <c r="D17" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="16" t="n">
+      <c r="E17" s="17" t="n">
         <f aca="false">SUM(E4:E14)</f>
         <v>0</v>
       </c>
-      <c r="F17" s="29" t="n">
+      <c r="F17" s="30" t="n">
         <v>20</v>
       </c>
       <c r="G17" s="0"/>
@@ -2733,244 +2771,252 @@
       <c r="H18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
       <c r="G19" s="0"/>
       <c r="H19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="34" t="s">
+      <c r="A20" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34" t="s">
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
       <c r="G20" s="0"/>
       <c r="H20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="35" t="s">
+      <c r="A21" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="36" t="s">
+      <c r="C21" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="E21" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="F21" s="36" t="s">
+      <c r="F21" s="37" t="s">
         <v>2</v>
       </c>
       <c r="G21" s="0"/>
       <c r="H21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="32" t="s">
+      <c r="A22" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="24" t="n">
+      <c r="B22" s="9"/>
+      <c r="C22" s="25" t="n">
         <v>10</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="E22" s="8" t="n">
+      <c r="E22" s="9" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C3</f>
         <v>0</v>
       </c>
-      <c r="F22" s="24" t="n">
+      <c r="F22" s="25" t="n">
         <f aca="false">'Table1 &amp; Fig1'!E3</f>
         <v>0</v>
       </c>
-      <c r="G22" s="8"/>
-      <c r="H22" s="14"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="15"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="32" t="s">
+      <c r="A23" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="24" t="n">
+      <c r="B23" s="9"/>
+      <c r="C23" s="25" t="n">
         <v>10</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="E23" s="8" t="n">
+      <c r="E23" s="9" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C7</f>
         <v>0</v>
       </c>
-      <c r="F23" s="24" t="n">
+      <c r="F23" s="25" t="n">
         <f aca="false">'Table1 &amp; Fig1'!E7</f>
         <v>0</v>
       </c>
-      <c r="G23" s="8"/>
-      <c r="H23" s="14"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="15"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="32" t="s">
+      <c r="A24" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="24" t="n">
+      <c r="B24" s="9"/>
+      <c r="C24" s="25" t="n">
         <v>10</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="10" t="s">
         <v>40</v>
       </c>
       <c r="E24" s="1" t="n">
-        <f aca="false">'Table1 &amp; Fig1'!C23-SUM(B24:B26)</f>
-        <v>0</v>
-      </c>
-      <c r="F24" s="24" t="n">
+        <f aca="false">'Table1 &amp; Fig1'!C23-SUM(B24:B28)</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="25" t="n">
         <f aca="false">'Table1 &amp; Fig1'!E23</f>
         <v>0</v>
       </c>
-      <c r="G24" s="8"/>
-      <c r="H24" s="14"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="15"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="32" t="s">
+      <c r="A25" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="24" t="n">
+      <c r="B25" s="9"/>
+      <c r="C25" s="25" t="n">
         <v>10</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E25" s="8" t="n">
+      <c r="E25" s="9" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C14</f>
         <v>0</v>
       </c>
-      <c r="F25" s="24" t="n">
+      <c r="F25" s="25" t="n">
         <f aca="false">'Table1 &amp; Fig1'!E14</f>
         <v>0</v>
       </c>
-      <c r="G25" s="8"/>
-      <c r="H25" s="14"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="15"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="32" t="s">
+      <c r="A26" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="24" t="n">
+      <c r="B26" s="9"/>
+      <c r="C26" s="25" t="n">
         <v>10</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E26" s="8" t="n">
+      <c r="E26" s="9" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C18</f>
         <v>0</v>
       </c>
-      <c r="F26" s="24" t="n">
+      <c r="F26" s="25" t="n">
         <f aca="false">'Table1 &amp; Fig1'!E18</f>
         <v>0</v>
       </c>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="32"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="14" t="s">
+      <c r="A27" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="15"/>
+      <c r="C27" s="29" t="n">
+        <v>10</v>
+      </c>
+      <c r="D27" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E27" s="8" t="n">
+      <c r="E27" s="9" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C16</f>
         <v>0</v>
       </c>
-      <c r="F27" s="24" t="n">
+      <c r="F27" s="25" t="n">
         <v>10</v>
       </c>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="38"/>
+      <c r="A28" s="33" t="s">
+        <v>67</v>
+      </c>
       <c r="B28" s="0"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="14" t="s">
+      <c r="C28" s="25" t="n">
+        <v>10</v>
+      </c>
+      <c r="D28" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="E28" s="8" t="n">
+      <c r="E28" s="9" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C15</f>
         <v>0</v>
       </c>
-      <c r="F28" s="24" t="n">
+      <c r="F28" s="25" t="n">
         <v>10</v>
       </c>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="38"/>
+      <c r="A29" s="39"/>
       <c r="B29" s="0"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="14" t="s">
+      <c r="C29" s="25"/>
+      <c r="D29" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="E29" s="8" t="n">
+      <c r="E29" s="9" t="n">
         <f aca="false">Fig2A!C23</f>
         <v>0</v>
       </c>
-      <c r="F29" s="24" t="n">
+      <c r="F29" s="25" t="n">
         <f aca="false">Fig2A!D23</f>
         <v>0</v>
       </c>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="38"/>
+      <c r="A30" s="39"/>
       <c r="B30" s="0"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="14" t="s">
+      <c r="C30" s="25"/>
+      <c r="D30" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E30" s="8" t="n">
+      <c r="E30" s="9" t="n">
         <f aca="false">Fig2A!C24</f>
         <v>0</v>
       </c>
-      <c r="F30" s="24" t="n">
+      <c r="F30" s="25" t="n">
         <v>10</v>
       </c>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="41"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="16" t="s">
+      <c r="B31" s="12"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E31" s="10" t="n">
+      <c r="E31" s="11" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C11</f>
         <v>0</v>
       </c>
-      <c r="F31" s="29" t="n">
+      <c r="F31" s="30" t="n">
         <v>10</v>
       </c>
     </row>
@@ -2983,15 +3029,15 @@
       <c r="F32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="35"/>
-      <c r="B33" s="18" t="s">
+      <c r="A33" s="36"/>
+      <c r="B33" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C33" s="39" t="s">
+      <c r="C33" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="D33" s="35"/>
-      <c r="E33" s="18" t="s">
+      <c r="D33" s="36"/>
+      <c r="E33" s="19" t="s">
         <v>52</v>
       </c>
       <c r="F33" s="40" t="s">
@@ -2999,24 +3045,24 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="33" t="s">
+      <c r="A34" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="16" t="n">
-        <f aca="false">SUM(B22:B26)</f>
-        <v>0</v>
-      </c>
-      <c r="C34" s="16" t="n">
+      <c r="B34" s="17" t="n">
+        <f aca="false">SUM(B22:B28)</f>
+        <v>0</v>
+      </c>
+      <c r="C34" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="D34" s="33" t="s">
+      <c r="D34" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="E34" s="16" t="n">
+      <c r="E34" s="17" t="n">
         <f aca="false">SUM(E22:E31)</f>
         <v>0</v>
       </c>
-      <c r="F34" s="29" t="n">
+      <c r="F34" s="30" t="n">
         <v>5</v>
       </c>
     </row>
@@ -3053,7 +3099,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="9.44897959183673"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3070,295 +3116,295 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="n">
+      <c r="C2" s="7" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C3</f>
         <v>0</v>
       </c>
-      <c r="D2" s="5" t="n">
+      <c r="D2" s="7" t="n">
         <f aca="false">SUM(C2:C3)</f>
         <v>0</v>
       </c>
-      <c r="E2" s="23" t="n">
+      <c r="E2" s="24" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="10" t="n">
+      <c r="C3" s="11" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C4</f>
         <v>0</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="5" t="n">
+      <c r="B4" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="7" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C7</f>
         <v>0</v>
       </c>
-      <c r="D4" s="5" t="n">
+      <c r="D4" s="7" t="n">
         <f aca="false">SUM(C4:C5)</f>
         <v>0</v>
       </c>
-      <c r="E4" s="23" t="n">
+      <c r="E4" s="24" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="10" t="n">
+      <c r="C5" s="11" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C8</f>
         <v>0</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="5" t="n">
+      <c r="C6" s="7" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C10</f>
         <v>0</v>
       </c>
-      <c r="D6" s="5" t="n">
+      <c r="D6" s="7" t="n">
         <f aca="false">SUM(C6:C7)</f>
         <v>0</v>
       </c>
-      <c r="E6" s="23" t="n">
+      <c r="E6" s="24" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="10" t="n">
+      <c r="C7" s="11" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C11</f>
         <v>0</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="5" t="n">
+      <c r="C8" s="7" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C12</f>
         <v>0</v>
       </c>
-      <c r="D8" s="5" t="n">
+      <c r="D8" s="7" t="n">
         <f aca="false">SUM(C8:C18)</f>
         <v>0</v>
       </c>
-      <c r="E8" s="23" t="n">
+      <c r="E8" s="24" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="8" t="n">
+      <c r="C9" s="9" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C13</f>
         <v>0</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="8" t="n">
+      <c r="C10" s="9" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C14</f>
         <v>0</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="8" t="n">
+      <c r="C11" s="9" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C15</f>
         <v>0</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="8" t="n">
+      <c r="C12" s="9" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C16</f>
         <v>0</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="8" t="n">
+      <c r="C13" s="9" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C17</f>
         <v>0</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="8" t="n">
+      <c r="C14" s="9" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C18</f>
         <v>0</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="8" t="n">
+      <c r="C15" s="9" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C19</f>
         <v>0</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="8" t="n">
+      <c r="C16" s="9" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C20</f>
         <v>0</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="8" t="n">
+      <c r="C17" s="9" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C21</f>
         <v>0</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="15" t="n">
+      <c r="C18" s="16" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C22</f>
         <v>0</v>
       </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="5" t="n">
+      <c r="C19" s="7" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C23</f>
         <v>0</v>
       </c>
-      <c r="D19" s="5" t="n">
+      <c r="D19" s="7" t="n">
         <f aca="false">SUM(C19:C20)</f>
         <v>0</v>
       </c>
-      <c r="E19" s="23" t="n">
+      <c r="E19" s="24" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="33" t="s">
+      <c r="A20" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="10" t="n">
+      <c r="C20" s="11" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C24</f>
         <v>0</v>
       </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="44" t="s">
@@ -3367,9 +3413,9 @@
       <c r="B21" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="36"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="37"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="44" t="s">
@@ -3382,16 +3428,16 @@
       <c r="D22" s="45" t="n">
         <v>152</v>
       </c>
-      <c r="E22" s="36" t="n">
+      <c r="E22" s="37" t="n">
         <v>150</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="32"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="24"/>
+      <c r="A23" s="33"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -3424,40 +3470,40 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E27" activeCellId="0" sqref="E27"/>
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="9.44897959183673"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="42" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B1" s="43" t="s">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="C1" s="43" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="43" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E1" s="46" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="32" t="s">
-        <v>71</v>
+      <c r="A2" s="33" t="s">
+        <v>72</v>
       </c>
       <c r="B2" s="47" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C26*1000000000000000</f>
         <v>0</v>
       </c>
-      <c r="C2" s="8" t="n">
+      <c r="C2" s="9" t="n">
         <f aca="false">'Table1 &amp; Fig1'!E26</f>
         <v>0</v>
       </c>
@@ -3465,34 +3511,34 @@
         <f aca="false">'Table S1'!D25</f>
         <v>3000000000000</v>
       </c>
-      <c r="E2" s="28"/>
+      <c r="E2" s="29"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="33" t="s">
         <v>28</v>
       </c>
       <c r="B3" s="48" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C26*1000000000000000</f>
         <v>0</v>
       </c>
-      <c r="C3" s="8" t="n">
+      <c r="C3" s="9" t="n">
         <f aca="false">'Table1 &amp; Fig1'!E26</f>
         <v>0</v>
       </c>
       <c r="D3" s="49"/>
-      <c r="E3" s="37" t="n">
+      <c r="E3" s="38" t="n">
         <v>400000</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="33" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="47" t="n">
         <f aca="false">'Table1 &amp; Fig1'!F2*1000000000000000</f>
         <v>0</v>
       </c>
-      <c r="C4" s="8" t="n">
+      <c r="C4" s="9" t="n">
         <f aca="false">'Table1 &amp; Fig1'!H2</f>
         <v>0</v>
       </c>
@@ -3500,17 +3546,17 @@
         <f aca="false">'Table S1'!F2</f>
         <v>0</v>
       </c>
-      <c r="E4" s="28"/>
+      <c r="E4" s="29"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="33" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="47" t="n">
         <f aca="false">'Table1 &amp; Fig1'!F6*1000000000000000</f>
         <v>0</v>
       </c>
-      <c r="C5" s="8" t="n">
+      <c r="C5" s="9" t="n">
         <f aca="false">'Table1 &amp; Fig1'!H6</f>
         <v>0</v>
       </c>
@@ -3518,17 +3564,17 @@
         <f aca="false">'Table S1'!F6</f>
         <v>0</v>
       </c>
-      <c r="E5" s="28"/>
+      <c r="E5" s="29"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="33" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="47" t="n">
         <f aca="false">'Table1 &amp; Fig1'!F10*1000000000000000</f>
         <v>0</v>
       </c>
-      <c r="C6" s="8" t="n">
+      <c r="C6" s="9" t="n">
         <f aca="false">'Table1 &amp; Fig1'!H10</f>
         <v>0</v>
       </c>
@@ -3541,88 +3587,88 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="33" t="s">
         <v>49</v>
       </c>
       <c r="B7" s="47" t="n">
         <f aca="false">SUM('Table1 &amp; Fig1'!C13:C14)*1000000000000000</f>
         <v>0</v>
       </c>
-      <c r="C7" s="8"/>
+      <c r="C7" s="9"/>
       <c r="D7" s="47" t="n">
         <f aca="false">'Table S1'!D14</f>
         <v>0</v>
       </c>
-      <c r="E7" s="37" t="n">
+      <c r="E7" s="38" t="n">
         <v>943383</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="33" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="47" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C12*1000000000000000</f>
         <v>0</v>
       </c>
-      <c r="C8" s="8" t="n">
+      <c r="C8" s="9" t="n">
         <v>10</v>
       </c>
       <c r="D8" s="47" t="n">
         <f aca="false">'Table S1'!D12</f>
         <v>0</v>
       </c>
-      <c r="E8" s="37" t="n">
+      <c r="E8" s="38" t="n">
         <v>13199</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="33" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="47" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C16*1000000000000000</f>
         <v>0</v>
       </c>
-      <c r="C9" s="8" t="n">
+      <c r="C9" s="9" t="n">
         <v>10</v>
       </c>
       <c r="D9" s="47" t="n">
         <f aca="false">'Table S1'!D16</f>
         <v>0</v>
       </c>
-      <c r="E9" s="37" t="n">
+      <c r="E9" s="38" t="n">
         <v>41642</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="33" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="47" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C15*1000000000000000</f>
         <v>0</v>
       </c>
-      <c r="C10" s="8" t="n">
+      <c r="C10" s="9" t="n">
         <v>10</v>
       </c>
       <c r="D10" s="47" t="n">
         <f aca="false">'Table S1'!D15</f>
         <v>0</v>
       </c>
-      <c r="E10" s="37" t="n">
+      <c r="E10" s="38" t="n">
         <v>11490</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="33" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="47" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C18*1000000000000000</f>
         <v>0</v>
       </c>
-      <c r="C11" s="8" t="n">
+      <c r="C11" s="9" t="n">
         <f aca="false">'Table1 &amp; Fig1'!E18</f>
         <v>0</v>
       </c>
@@ -3630,72 +3676,72 @@
         <f aca="false">'Table S1'!D18</f>
         <v>0</v>
       </c>
-      <c r="E11" s="37" t="n">
+      <c r="E11" s="38" t="n">
         <v>18223</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="33" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="47" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C17*1000000000000000</f>
         <v>0</v>
       </c>
-      <c r="C12" s="8" t="n">
+      <c r="C12" s="9" t="n">
         <v>10</v>
       </c>
       <c r="D12" s="47" t="n">
         <f aca="false">'Table S1'!D17</f>
         <v>0</v>
       </c>
-      <c r="E12" s="37" t="n">
+      <c r="E12" s="38" t="n">
         <v>9984</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="33" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="47" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C20*1000000000000000</f>
         <v>0</v>
       </c>
-      <c r="C13" s="8" t="n">
+      <c r="C13" s="9" t="n">
         <v>1.1</v>
       </c>
       <c r="D13" s="47" t="n">
         <f aca="false">'Table S1'!D20</f>
         <v>0</v>
       </c>
-      <c r="E13" s="28"/>
+      <c r="E13" s="29"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="33" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="47" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C19*1000000000000000</f>
         <v>0</v>
       </c>
-      <c r="C14" s="8" t="n">
+      <c r="C14" s="9" t="n">
         <v>1.1</v>
       </c>
       <c r="D14" s="47" t="n">
         <f aca="false">'Table S1'!D19</f>
         <v>0</v>
       </c>
-      <c r="E14" s="28"/>
+      <c r="E14" s="29"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="33" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="47" t="n">
         <f aca="false">'Table1 &amp; Fig1'!F23*1000000000000000</f>
         <v>0</v>
       </c>
-      <c r="C15" s="8" t="n">
+      <c r="C15" s="9" t="n">
         <f aca="false">'Table1 &amp; Fig1'!H23</f>
         <v>0</v>
       </c>
@@ -3703,39 +3749,39 @@
         <f aca="false">'Table S1'!F23</f>
         <v>0</v>
       </c>
-      <c r="E15" s="37" t="n">
+      <c r="E15" s="38" t="n">
         <v>100000</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="33" t="s">
         <v>24</v>
       </c>
       <c r="B16" s="47" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C21*1000000000000000</f>
         <v>0</v>
       </c>
-      <c r="C16" s="8" t="n">
+      <c r="C16" s="9" t="n">
         <v>10</v>
       </c>
       <c r="D16" s="47" t="n">
         <f aca="false">'Table S1'!D21</f>
         <v>0</v>
       </c>
-      <c r="E16" s="37" t="n">
+      <c r="E16" s="38" t="n">
         <v>7480</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="33" t="s">
-        <v>72</v>
+      <c r="A17" s="34" t="s">
+        <v>73</v>
       </c>
       <c r="B17" s="51" t="n">
         <f aca="false">SUM('Table1 &amp; Fig1'!C18:C22)*1000000000000000</f>
         <v>0</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="16"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="17"/>
       <c r="E17" s="52" t="n">
         <v>49693</v>
       </c>
@@ -3759,31 +3805,31 @@
   <dimension ref="A1:G65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
+      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="9.44897959183673"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="53"/>
       <c r="B1" s="53"/>
       <c r="C1" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3793,7 +3839,7 @@
       <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="5" t="n">
+      <c r="C2" s="7" t="n">
         <f aca="false">'Table1 &amp; Fig1'!D2</f>
         <v>60</v>
       </c>
@@ -3814,7 +3860,7 @@
       <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="8" t="n">
+      <c r="C3" s="9" t="n">
         <f aca="false">'Table1 &amp; Fig1'!D3</f>
         <v>1.4</v>
       </c>
@@ -3830,11 +3876,11 @@
       <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="8" t="n">
+      <c r="C4" s="9" t="n">
         <f aca="false">'Table1 &amp; Fig1'!D4</f>
         <v>7</v>
       </c>
-      <c r="D4" s="8"/>
+      <c r="D4" s="9"/>
       <c r="E4" s="57" t="n">
         <v>1E+029</v>
       </c>
@@ -3846,11 +3892,11 @@
       <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="10" t="n">
+      <c r="C5" s="11" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C5</f>
         <v>0</v>
       </c>
-      <c r="D5" s="10"/>
+      <c r="D5" s="11"/>
       <c r="E5" s="58" t="n">
         <v>1E+029</v>
       </c>
@@ -3864,7 +3910,7 @@
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="5" t="n">
+      <c r="C6" s="7" t="n">
         <f aca="false">'Table1 &amp; Fig1'!D6</f>
         <v>4</v>
       </c>
@@ -3885,7 +3931,7 @@
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="8" t="n">
+      <c r="C7" s="9" t="n">
         <f aca="false">'Table1 &amp; Fig1'!D7</f>
         <v>0.3</v>
       </c>
@@ -3901,11 +3947,11 @@
       <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="8" t="n">
+      <c r="C8" s="9" t="n">
         <f aca="false">'Table1 &amp; Fig1'!D8</f>
         <v>0.5</v>
       </c>
-      <c r="D8" s="8"/>
+      <c r="D8" s="9"/>
       <c r="E8" s="57" t="n">
         <v>1E+028</v>
       </c>
@@ -3917,11 +3963,11 @@
       <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="10" t="n">
+      <c r="C9" s="11" t="n">
         <f aca="false">'Table1 &amp; Fig1'!D9</f>
         <v>3</v>
       </c>
-      <c r="D9" s="10"/>
+      <c r="D9" s="11"/>
       <c r="E9" s="58" t="n">
         <v>1E+029</v>
       </c>
@@ -3935,7 +3981,7 @@
       <c r="B10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="5" t="n">
+      <c r="C10" s="7" t="n">
         <f aca="false">'Table1 &amp; Fig1'!D10</f>
         <v>0</v>
       </c>
@@ -3954,11 +4000,11 @@
       <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="8" t="n">
+      <c r="C11" s="9" t="n">
         <f aca="false">'Table1 &amp; Fig1'!D11</f>
         <v>0</v>
       </c>
-      <c r="D11" s="8"/>
+      <c r="D11" s="9"/>
       <c r="E11" s="0"/>
       <c r="F11" s="55"/>
       <c r="G11" s="55"/>
@@ -3970,7 +4016,7 @@
       <c r="B12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="5" t="n">
+      <c r="C12" s="7" t="n">
         <f aca="false">'Table1 &amp; Fig1'!D12</f>
         <v>0.2</v>
       </c>
@@ -3991,7 +4037,7 @@
       <c r="B13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="8" t="n">
+      <c r="C13" s="9" t="n">
         <f aca="false">'Table1 &amp; Fig1'!D13</f>
         <v>0.2</v>
       </c>
@@ -4007,7 +4053,7 @@
       <c r="B14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="8" t="n">
+      <c r="C14" s="9" t="n">
         <f aca="false">'Table1 &amp; Fig1'!D14</f>
         <v>1</v>
       </c>
@@ -4023,7 +4069,7 @@
       <c r="B15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="8" t="n">
+      <c r="C15" s="9" t="n">
         <f aca="false">'Table1 &amp; Fig1'!D15</f>
         <v>0.1</v>
       </c>
@@ -4039,7 +4085,7 @@
       <c r="B16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="8" t="n">
+      <c r="C16" s="9" t="n">
         <f aca="false">'Table1 &amp; Fig1'!D16</f>
         <v>0.2</v>
       </c>
@@ -4055,7 +4101,7 @@
       <c r="B17" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="8" t="n">
+      <c r="C17" s="9" t="n">
         <f aca="false">'Table1 &amp; Fig1'!D17</f>
         <v>0.02</v>
       </c>
@@ -4071,7 +4117,7 @@
       <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="8" t="n">
+      <c r="C18" s="9" t="n">
         <f aca="false">'Table1 &amp; Fig1'!D18</f>
         <v>0.7</v>
       </c>
@@ -4087,7 +4133,7 @@
       <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="8" t="n">
+      <c r="C19" s="9" t="n">
         <f aca="false">'Table1 &amp; Fig1'!D19</f>
         <v>0.1</v>
       </c>
@@ -4103,7 +4149,7 @@
       <c r="B20" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="8" t="n">
+      <c r="C20" s="9" t="n">
         <f aca="false">'Table1 &amp; Fig1'!D20</f>
         <v>0.05</v>
       </c>
@@ -4119,7 +4165,7 @@
       <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="8" t="n">
+      <c r="C21" s="9" t="n">
         <f aca="false">'Table1 &amp; Fig1'!D21</f>
         <v>0.002</v>
       </c>
@@ -4135,12 +4181,12 @@
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="15" t="n">
+      <c r="C22" s="16" t="n">
         <f aca="false">'Table1 &amp; Fig1'!D22</f>
         <v>0.007</v>
       </c>
-      <c r="D22" s="16"/>
-      <c r="E22" s="11"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="12"/>
       <c r="F22" s="55"/>
       <c r="G22" s="55"/>
     </row>
@@ -4151,7 +4197,7 @@
       <c r="B23" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="5" t="n">
+      <c r="C23" s="7" t="n">
         <f aca="false">'Table1 &amp; Fig1'!G23</f>
         <v>4</v>
       </c>
@@ -4172,7 +4218,7 @@
       <c r="B24" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="17" t="n">
+      <c r="C24" s="18" t="n">
         <f aca="false">'Table1 &amp; Fig1'!D25</f>
         <v>0.2</v>
       </c>
@@ -4180,7 +4226,7 @@
       <c r="E24" s="60" t="n">
         <v>1E+031</v>
       </c>
-      <c r="F24" s="18"/>
+      <c r="F24" s="19"/>
       <c r="G24" s="61" t="n">
         <v>1E+031</v>
       </c>
@@ -4192,7 +4238,7 @@
       <c r="B25" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="17" t="n">
+      <c r="C25" s="18" t="n">
         <f aca="false">'Table1 &amp; Fig1'!D26</f>
         <v>450</v>
       </c>
@@ -4202,7 +4248,7 @@
       <c r="E25" s="60" t="n">
         <v>10000000000000</v>
       </c>
-      <c r="F25" s="18"/>
+      <c r="F25" s="19"/>
       <c r="G25" s="61" t="n">
         <v>10000000000000</v>
       </c>
@@ -4247,365 +4293,391 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B31" activeCellId="0" sqref="B31"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A44" activeCellId="0" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="31.0459183673469"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="1" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="29.0255102040816"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="1" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="9.44897959183673"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="62"/>
-      <c r="B1" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1" s="39" t="s">
+      <c r="B1" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="C1" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="37" t="s">
         <v>47</v>
       </c>
       <c r="G1" s="0"/>
+      <c r="L1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="63" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B2" s="64" t="n">
         <f aca="false">'Table1 &amp; Fig1'!F27</f>
         <v>0</v>
       </c>
-      <c r="C2" s="9" t="n">
+      <c r="C2" s="10" t="n">
         <v>550</v>
       </c>
-      <c r="D2" s="24"/>
+      <c r="D2" s="25"/>
       <c r="G2" s="0"/>
+      <c r="L2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="63" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B3" s="1" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C26</f>
         <v>0</v>
       </c>
-      <c r="C3" s="9" t="n">
+      <c r="C3" s="10" t="n">
         <v>450</v>
       </c>
-      <c r="D3" s="24"/>
+      <c r="D3" s="25"/>
       <c r="G3" s="0"/>
+      <c r="L3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="63" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B4" s="65" t="e">
         <f aca="false">'Table1 &amp; Fig1'!C26/'Table1 &amp; Fig1'!F27</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C4" s="9" t="n">
+      <c r="C4" s="10" t="n">
         <v>0.8</v>
       </c>
-      <c r="D4" s="24"/>
+      <c r="D4" s="25"/>
       <c r="G4" s="0"/>
+      <c r="L4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="63" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B5" s="1" t="n">
         <f aca="false">'Table1 &amp; Fig1'!F2</f>
         <v>0</v>
       </c>
-      <c r="C5" s="9" t="n">
+      <c r="C5" s="10" t="n">
         <v>70</v>
       </c>
-      <c r="D5" s="24"/>
+      <c r="D5" s="25"/>
       <c r="G5" s="0"/>
+      <c r="L5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="63" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B6" s="66" t="e">
         <f aca="false">'Table1 &amp; Fig1'!G2/'Table1 &amp; Fig1'!F27</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C6" s="9" t="n">
+      <c r="C6" s="10" t="n">
         <v>0.15</v>
       </c>
-      <c r="D6" s="24"/>
+      <c r="D6" s="25"/>
       <c r="G6" s="0"/>
+      <c r="L6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="63" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B7" s="1" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C26-B10</f>
         <v>0</v>
       </c>
-      <c r="C7" s="9" t="n">
+      <c r="C7" s="10" t="n">
         <v>320</v>
       </c>
-      <c r="D7" s="24"/>
+      <c r="D7" s="25"/>
       <c r="G7" s="0"/>
+      <c r="L7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="63" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B8" s="65" t="e">
         <f aca="false">B7/SUM(B9+B7)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C8" s="9" t="n">
+      <c r="C8" s="10" t="n">
         <v>0.6</v>
       </c>
-      <c r="D8" s="24"/>
+      <c r="D8" s="25"/>
       <c r="G8" s="0"/>
+      <c r="L8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="63" t="s">
-        <v>86</v>
-      </c>
-      <c r="B9" s="1" t="n">
-        <f aca="false">B10+'Table1 &amp; Fig1'!C4+'Table1 &amp; Fig1'!C5+'Table1 &amp; Fig1'!C7+'Table1 &amp; Fig1'!C9+'Table1 &amp; Fig1'!C10+'Table1 &amp; Fig1'!C12+'Table1 &amp; Fig1'!C14+'Table1 &amp; Fig1'!C29+'Table1 &amp; Fig1'!C30+'Table1 &amp; Fig1'!C16+'Table1 &amp; Fig1'!C2</f>
-        <v>0</v>
-      </c>
-      <c r="C9" s="9" t="n">
+        <v>87</v>
+      </c>
+      <c r="B9" s="67" t="n">
+        <f aca="false">B10+'Table1 &amp; Fig1'!C2+'Table1 &amp; Fig1'!C4+'Table1 &amp; Fig1'!C5+'Table1 &amp; Fig1'!C6+'Table1 &amp; Fig1'!C8+'Table1 &amp; Fig1'!C9+'Table1 &amp; Fig1'!C10+'Table1 &amp; Fig1'!C12+'Table1 &amp; Fig1'!C24</f>
+        <v>0</v>
+      </c>
+      <c r="C9" s="10" t="n">
         <v>230</v>
       </c>
-      <c r="D9" s="24"/>
+      <c r="D9" s="25"/>
       <c r="G9" s="0"/>
+      <c r="L9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="63" t="s">
-        <v>87</v>
-      </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9" t="n">
+        <v>88</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10" t="n">
         <v>130</v>
       </c>
-      <c r="D10" s="24"/>
-      <c r="G10" s="67"/>
+      <c r="D10" s="25"/>
+      <c r="G10" s="68"/>
+      <c r="L10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="63" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B11" s="1" t="n">
         <f aca="false">B9-B10</f>
         <v>0</v>
       </c>
-      <c r="C11" s="9" t="n">
+      <c r="C11" s="10" t="n">
         <v>100</v>
       </c>
-      <c r="D11" s="24"/>
+      <c r="D11" s="25"/>
+      <c r="L11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="63" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B12" s="66" t="e">
         <f aca="false">(B3-B14)/B3</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C12" s="9" t="n">
+      <c r="C12" s="10" t="n">
         <v>0.7</v>
       </c>
-      <c r="D12" s="24"/>
+      <c r="D12" s="25"/>
+      <c r="L12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="63" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B13" s="65" t="e">
         <f aca="false">Fig2B!E16/SUM(Fig2B!C16:E16)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C13" s="9" t="n">
+      <c r="C13" s="10" t="n">
         <v>0.9</v>
       </c>
-      <c r="D13" s="24"/>
+      <c r="D13" s="25"/>
+      <c r="L13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="63" t="s">
-        <v>91</v>
-      </c>
-      <c r="B14" s="9" t="n">
+        <v>92</v>
+      </c>
+      <c r="B14" s="10" t="n">
         <f aca="false">FigS1!D22</f>
         <v>152</v>
       </c>
-      <c r="C14" s="9" t="n">
+      <c r="C14" s="10" t="n">
         <v>150</v>
       </c>
-      <c r="D14" s="24"/>
+      <c r="D14" s="25"/>
+      <c r="L14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="63" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B15" s="1" t="n">
         <f aca="false">FigS1!D2</f>
         <v>0</v>
       </c>
-      <c r="C15" s="9" t="n">
+      <c r="C15" s="10" t="n">
         <v>9</v>
       </c>
-      <c r="D15" s="24"/>
+      <c r="D15" s="25"/>
+      <c r="L15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="63" t="s">
-        <v>93</v>
-      </c>
-      <c r="B16" s="9" t="n">
+        <v>94</v>
+      </c>
+      <c r="B16" s="10" t="n">
         <f aca="false">FigS1!D6</f>
         <v>0</v>
       </c>
-      <c r="C16" s="9" t="n">
+      <c r="C16" s="10" t="n">
         <v>13</v>
       </c>
-      <c r="D16" s="24"/>
+      <c r="D16" s="25"/>
+      <c r="L16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="B17" s="68" t="n">
+      <c r="A17" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B17" s="69" t="n">
         <f aca="false">379*0.15/1000</f>
         <v>0.05685</v>
       </c>
-      <c r="C17" s="9" t="n">
+      <c r="C17" s="10" t="n">
         <v>0.05</v>
       </c>
-      <c r="D17" s="24"/>
+      <c r="D17" s="25"/>
+      <c r="L17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="63" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B18" s="1" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C20</f>
         <v>0</v>
       </c>
-      <c r="C18" s="9" t="n">
+      <c r="C18" s="10" t="n">
         <v>0.05</v>
       </c>
-      <c r="D18" s="24"/>
+      <c r="D18" s="25"/>
+      <c r="L18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="63" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B19" s="1" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C19</f>
         <v>0</v>
       </c>
-      <c r="C19" s="9" t="n">
+      <c r="C19" s="10" t="n">
         <v>0.01</v>
       </c>
-      <c r="D19" s="24"/>
+      <c r="D19" s="25"/>
+      <c r="L19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="63" t="s">
-        <v>97</v>
-      </c>
-      <c r="B20" s="68" t="n">
+        <v>98</v>
+      </c>
+      <c r="B20" s="69" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C22</f>
         <v>0</v>
       </c>
-      <c r="C20" s="9" t="n">
+      <c r="C20" s="10" t="n">
         <v>0.007</v>
       </c>
-      <c r="D20" s="24"/>
+      <c r="D20" s="25"/>
+      <c r="L20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="63" t="s">
-        <v>98</v>
-      </c>
-      <c r="B21" s="68"/>
-      <c r="C21" s="9" t="n">
+        <v>99</v>
+      </c>
+      <c r="B21" s="69"/>
+      <c r="C21" s="10" t="n">
         <v>0.005</v>
       </c>
-      <c r="D21" s="24"/>
+      <c r="D21" s="25"/>
+      <c r="L21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="63" t="s">
-        <v>99</v>
-      </c>
-      <c r="B22" s="68" t="n">
+        <v>100</v>
+      </c>
+      <c r="B22" s="69" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C21</f>
         <v>0</v>
       </c>
-      <c r="C22" s="9" t="n">
+      <c r="C22" s="10" t="n">
         <v>0.002</v>
       </c>
-      <c r="D22" s="24"/>
+      <c r="D22" s="25"/>
+      <c r="L22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="63" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B23" s="65" t="e">
         <f aca="false">B21/B22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C23" s="9" t="n">
+      <c r="C23" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="D23" s="24"/>
+      <c r="D23" s="25"/>
+      <c r="L23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="63" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B24" s="66" t="e">
         <f aca="false">SUM(Fig2B!C6,Fig2B!C7)/SUM(Fig2B!C5:C11)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C24" s="9" t="n">
+      <c r="C24" s="10" t="n">
         <v>0.25</v>
       </c>
-      <c r="D24" s="24"/>
+      <c r="D24" s="25"/>
+      <c r="L24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="63" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B25" s="65" t="n">
         <f aca="false">'Table1 &amp; Fig1'!F12</f>
         <v>0</v>
       </c>
-      <c r="C25" s="9" t="n">
+      <c r="C25" s="10" t="n">
         <f aca="false">'Table1 &amp; Fig1'!G12</f>
         <v>3</v>
       </c>
-      <c r="D25" s="24"/>
+      <c r="D25" s="25"/>
+      <c r="L25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="63" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B26" s="1" t="n">
         <f aca="false">SUM('Table1 &amp; Fig1'!C13:C14)</f>
         <v>0</v>
       </c>
-      <c r="C26" s="9" t="n">
+      <c r="C26" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="D26" s="24"/>
+      <c r="D26" s="25"/>
+      <c r="L26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="63" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B27" s="1" t="n">
         <f aca="false">'Table1 &amp; Fig1'!C18</f>
@@ -4615,253 +4687,266 @@
         <f aca="false">'Table1 &amp; Fig1'!D18</f>
         <v>0.7</v>
       </c>
-      <c r="D27" s="24"/>
+      <c r="D27" s="25"/>
+      <c r="L27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="63" t="s">
-        <v>105</v>
-      </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9" t="n">
+        <v>106</v>
+      </c>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10" t="n">
         <v>0.02</v>
       </c>
-      <c r="D28" s="27" t="s">
-        <v>106</v>
-      </c>
+      <c r="D28" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="L28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="63" t="s">
-        <v>107</v>
-      </c>
-      <c r="B29" s="68" t="n">
+        <v>108</v>
+      </c>
+      <c r="B29" s="69" t="n">
         <f aca="false">Fig2A!C9</f>
         <v>0</v>
       </c>
-      <c r="C29" s="9" t="n">
+      <c r="C29" s="10" t="n">
         <v>0.003</v>
       </c>
-      <c r="D29" s="27"/>
+      <c r="D29" s="28"/>
+      <c r="L29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="63" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B30" s="65" t="e">
         <f aca="false">B28/B29</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C30" s="9" t="n">
+      <c r="C30" s="10" t="n">
         <v>7</v>
       </c>
-      <c r="D30" s="27"/>
+      <c r="D30" s="28"/>
+      <c r="L30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="63" t="s">
-        <v>109</v>
-      </c>
-      <c r="B31" s="68" t="n">
-        <f aca="false">Fig2A!C23</f>
-        <v>0</v>
-      </c>
-      <c r="C31" s="9" t="n">
+        <v>110</v>
+      </c>
+      <c r="B31" s="69"/>
+      <c r="C31" s="10" t="n">
         <v>0.02</v>
       </c>
-      <c r="D31" s="27" t="s">
-        <v>110</v>
-      </c>
+      <c r="D31" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="L31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="63" t="s">
-        <v>111</v>
-      </c>
-      <c r="B32" s="69" t="n">
+        <v>112</v>
+      </c>
+      <c r="B32" s="70" t="n">
         <f aca="false">Fig2B!D8</f>
         <v>0</v>
       </c>
-      <c r="C32" s="9" t="n">
+      <c r="C32" s="10" t="n">
         <v>0.004</v>
       </c>
-      <c r="D32" s="24"/>
+      <c r="D32" s="25"/>
+      <c r="L32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="63" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B33" s="65" t="e">
         <f aca="false">B31/B32</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C33" s="9" t="n">
+      <c r="C33" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="D33" s="24"/>
+      <c r="D33" s="25"/>
+      <c r="L33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="70" t="s">
-        <v>113</v>
+      <c r="A34" s="71" t="s">
+        <v>114</v>
       </c>
       <c r="B34" s="65" t="e">
         <f aca="false">(B28+B31)/(B29+B32)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C34" s="9" t="n">
+      <c r="C34" s="10" t="n">
         <v>6</v>
       </c>
-      <c r="D34" s="24"/>
+      <c r="D34" s="25"/>
+      <c r="L34" s="0"/>
     </row>
     <row r="35" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="70" t="s">
-        <v>114</v>
+      <c r="A35" s="71" t="s">
+        <v>115</v>
       </c>
       <c r="B35" s="65" t="e">
         <f aca="false">SUM(B18,B19,B29,B32)/SUM(B28,B31)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C35" s="9" t="n">
+      <c r="C35" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="D35" s="24"/>
+      <c r="D35" s="25"/>
+      <c r="L35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="63" t="s">
-        <v>115</v>
-      </c>
-      <c r="B36" s="68" t="n">
+        <v>116</v>
+      </c>
+      <c r="B36" s="69" t="n">
         <f aca="false">B28+B31</f>
         <v>0</v>
       </c>
-      <c r="C36" s="9" t="n">
+      <c r="C36" s="10" t="n">
         <v>0.04</v>
       </c>
-      <c r="D36" s="24"/>
+      <c r="D36" s="25"/>
+      <c r="L36" s="0"/>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="63" t="s">
-        <v>116</v>
-      </c>
-      <c r="B37" s="68" t="n">
+        <v>117</v>
+      </c>
+      <c r="B37" s="69" t="n">
         <f aca="false">B32+B29+B18+B19</f>
         <v>0</v>
       </c>
-      <c r="C37" s="9" t="n">
+      <c r="C37" s="10" t="n">
         <v>0.16</v>
       </c>
-      <c r="D37" s="24"/>
+      <c r="D37" s="25"/>
+      <c r="L37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="63" t="s">
-        <v>117</v>
-      </c>
-      <c r="B38" s="9" t="n">
+        <v>118</v>
+      </c>
+      <c r="B38" s="10" t="n">
         <v>0.2</v>
       </c>
-      <c r="C38" s="9" t="n">
+      <c r="C38" s="10" t="n">
         <v>0.2</v>
       </c>
-      <c r="D38" s="24"/>
+      <c r="D38" s="25"/>
+      <c r="L38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="63" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B39" s="65" t="e">
         <f aca="false">(916-B3+B2)/B2</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C39" s="9" t="n">
+      <c r="C39" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="D39" s="27" t="s">
-        <v>119</v>
+      <c r="D39" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="L39" s="1" t="n">
+        <f aca="false">B10+'Table1 &amp; Fig1'!C2+'Table1 &amp; Fig1'!C4+'Table1 &amp; Fig1'!C5+'Table1 &amp; Fig1'!C6+'Table1 &amp; Fig1'!C8+'Table1 &amp; Fig1'!C9+'Table1 &amp; Fig1'!C10+'Table1 &amp; Fig1'!C12+'Table1 &amp; Fig1'!C24</f>
+        <v>0</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="63" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B40" s="64" t="n">
         <f aca="false">Fig2A!C14</f>
         <v>0</v>
       </c>
-      <c r="C40" s="9" t="n">
+      <c r="C40" s="10" t="n">
         <v>470</v>
       </c>
-      <c r="D40" s="24"/>
+      <c r="D40" s="25"/>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="63" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B41" s="1" t="n">
         <f aca="false">Fig2A!C26</f>
         <v>0</v>
       </c>
-      <c r="C41" s="9" t="n">
+      <c r="C41" s="10" t="n">
         <v>6</v>
       </c>
-      <c r="D41" s="24"/>
+      <c r="D41" s="25"/>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="38" t="s">
-        <v>122</v>
+      <c r="A42" s="39" t="s">
+        <v>123</v>
       </c>
       <c r="B42" s="1" t="n">
         <f aca="false">Fig2C!B34</f>
         <v>0</v>
       </c>
-      <c r="C42" s="9" t="n">
+      <c r="C42" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="D42" s="24"/>
+      <c r="D42" s="25"/>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="63" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B43" s="1" t="n">
         <f aca="false">Fig2C!E34</f>
         <v>0</v>
       </c>
-      <c r="C43" s="9" t="n">
+      <c r="C43" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="D43" s="24"/>
+      <c r="D43" s="25"/>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="63" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B44" s="66" t="e">
-        <f aca="false">SUM(Fig2C!E22,Fig2C!E23,Fig2C!E24,Fig2C!E31,Fig2C!B24,Fig2C!B25,Fig2C!B26)/SUM(Fig2C!B34,Fig2C!E34)</f>
+        <f aca="false">SUM(Fig2C!E22,Fig2C!E23,Fig2C!E24,Fig2C!E31,Fig2C!B24,Fig2C!B25,Fig2C!B26,Fig2C!B27,Fig2C!B28)/SUM(Fig2C!B34,Fig2C!E34)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C44" s="9" t="n">
+      <c r="C44" s="10" t="n">
         <v>0.7</v>
       </c>
-      <c r="D44" s="24"/>
+      <c r="D44" s="25"/>
     </row>
     <row r="45" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="63" t="s">
-        <v>125</v>
-      </c>
-      <c r="B45" s="71" t="e">
+        <v>126</v>
+      </c>
+      <c r="B45" s="72" t="e">
         <f aca="false">Fig2A!C32/SUM(Fig2A!C32,Fig2A!C26,Fig2A!C14)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C45" s="9" t="n">
+      <c r="C45" s="10" t="n">
         <v>0.15</v>
       </c>
-      <c r="D45" s="24"/>
+      <c r="D45" s="25"/>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="72" t="s">
-        <v>126</v>
-      </c>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11" t="n">
+      <c r="A46" s="73" t="s">
+        <v>127</v>
+      </c>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12" t="n">
         <v>0.05</v>
       </c>
-      <c r="D46" s="29"/>
+      <c r="D46" s="30"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/results_20180322_empty.xlsx
+++ b/results_20180322_empty.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Table1 &amp; Fig1" sheetId="1" state="visible" r:id="rId2"/>
@@ -1157,9 +1157,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="1" width="9.44897959183673"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="1" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="9.17857142857143"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1659,8 +1659,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="1" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="1" width="9.17857142857143"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2159,7 +2159,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="9.17857142857143"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2461,13 +2461,13 @@
   </sheetPr>
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C31" activeCellId="0" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="9.17857142857143"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3094,12 +3094,12 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I24" activeCellId="0" sqref="I24"/>
+      <selection pane="topLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="9.17857142857143"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3414,8 +3414,13 @@
         <v>27</v>
       </c>
       <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="37"/>
+      <c r="D21" s="18" t="n">
+        <f aca="false">C21</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="37" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="44" t="s">
@@ -3426,7 +3431,8 @@
       </c>
       <c r="C22" s="45"/>
       <c r="D22" s="45" t="n">
-        <v>152</v>
+        <f aca="false">C22</f>
+        <v>0</v>
       </c>
       <c r="E22" s="37" t="n">
         <v>150</v>
@@ -3475,7 +3481,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="9.17857142857143"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3810,7 +3816,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="9.17857142857143"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4295,16 +4301,16 @@
   </sheetPr>
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A44" activeCellId="0" sqref="A44"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B39" activeCellId="0" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="29.0255102040816"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="1" width="9.44897959183673"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="7.69387755102041"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="28.2142857142857"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="1" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="7.4234693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="9.17857142857143"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4501,7 +4507,7 @@
       </c>
       <c r="B14" s="10" t="n">
         <f aca="false">FigS1!D22</f>
-        <v>152</v>
+        <v>0</v>
       </c>
       <c r="C14" s="10" t="n">
         <v>150</v>
@@ -4832,9 +4838,7 @@
       <c r="A38" s="63" t="s">
         <v>118</v>
       </c>
-      <c r="B38" s="10" t="n">
-        <v>0.2</v>
-      </c>
+      <c r="B38" s="10"/>
       <c r="C38" s="10" t="n">
         <v>0.2</v>
       </c>
@@ -4854,10 +4858,6 @@
       </c>
       <c r="D39" s="28" t="s">
         <v>120</v>
-      </c>
-      <c r="L39" s="1" t="n">
-        <f aca="false">B10+'Table1 &amp; Fig1'!C2+'Table1 &amp; Fig1'!C4+'Table1 &amp; Fig1'!C5+'Table1 &amp; Fig1'!C6+'Table1 &amp; Fig1'!C8+'Table1 &amp; Fig1'!C9+'Table1 &amp; Fig1'!C10+'Table1 &amp; Fig1'!C12+'Table1 &amp; Fig1'!C24</f>
-        <v>0</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/results_20180322_empty.xlsx
+++ b/results_20180322_empty.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Table1 &amp; Fig1" sheetId="1" state="visible" r:id="rId2"/>
@@ -1151,15 +1151,15 @@
   </sheetPr>
   <dimension ref="A1:Z27"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G23" activeCellId="0" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="1" width="9.17857142857143"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="1" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="9.04591836734694"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H6" s="8"/>
       <c r="L6" s="0"/>
@@ -1351,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H10" s="8"/>
       <c r="L10" s="0"/>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H12" s="8"/>
       <c r="L12" s="0"/>
@@ -1659,8 +1659,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="1" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="1" width="9.04591836734694"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2159,7 +2159,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="9.04591836734694"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2467,7 +2467,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="9.04591836734694"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3099,7 +3099,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="9.04591836734694"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3481,7 +3481,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="9.04591836734694"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3816,7 +3816,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="9.04591836734694"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4301,16 +4301,16 @@
   </sheetPr>
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B39" activeCellId="0" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="28.2142857142857"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="1" width="9.17857142857143"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="7.4234693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="1" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="9.04591836734694"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4662,7 +4662,7 @@
       </c>
       <c r="C25" s="10" t="n">
         <f aca="false">'Table1 &amp; Fig1'!G12</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" s="25"/>
       <c r="L25" s="0"/>
